--- a/dataset/dataset.xlsx
+++ b/dataset/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C3BF9-E830-45A4-B36C-769062AC486C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBF6242-F99A-4BF5-B89F-AFC4BE96E253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{8E160886-3C3A-4460-A214-34AECBDC80AA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="352">
   <si>
     <t>1</t>
   </si>
@@ -1086,6 +1086,12 @@
   </si>
   <si>
     <t>2347 kBit/s</t>
+  </si>
+  <si>
+    <t>Alternative Start Frame</t>
+  </si>
+  <si>
+    <t>Alternative Frames Cut</t>
   </si>
 </sst>
 </file>
@@ -1144,18 +1150,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1471,10 +1480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A532203-6E58-4A09-8BB3-CF368C5C55B3}">
-  <dimension ref="A1:U65"/>
+  <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1500,10 +1509,12 @@
     <col min="19" max="19" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>80</v>
       </c>
@@ -1567,9 +1578,17 @@
       <c r="U1" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="V1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="5"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1584,16 +1603,16 @@
       <c r="E2" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" s="7">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1605,20 +1624,20 @@
       <c r="L2" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="5">
         <v>179</v>
       </c>
-      <c r="O2">
-        <v>182</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="O2" s="5">
+        <v>182</v>
+      </c>
+      <c r="P2" s="5">
         <f>N2+1-M2</f>
         <v>157</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -1627,15 +1646,26 @@
       <c r="S2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>0</v>
       </c>
       <c r="U2" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V2" s="5">
+        <v>23</v>
+      </c>
+      <c r="W2" s="5">
+        <f>N2+1-V2</f>
+        <v>157</v>
+      </c>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="5"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="5"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1650,17 +1680,17 @@
       <c r="E3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F3" s="4" t="str">
+      <c r="F3" s="7">
         <f>F2</f>
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -1672,20 +1702,20 @@
       <c r="L3" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="5">
         <v>168</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="5">
         <v>175</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="5">
         <f t="shared" ref="P3:P65" si="0">N3+1-M3</f>
         <v>148</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -1694,15 +1724,26 @@
       <c r="S3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>0</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V3" s="5">
+        <v>21</v>
+      </c>
+      <c r="W3" s="5">
+        <f t="shared" ref="W3:W65" si="1">N3+1-V3</f>
+        <v>148</v>
+      </c>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="5"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="5"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1717,17 +1758,17 @@
       <c r="E4" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F65" si="1">F3</f>
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F65" si="2">F3</f>
         <v>25</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -1739,20 +1780,20 @@
       <c r="L4" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
         <v>261</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="5">
         <v>271</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="5">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -1761,15 +1802,26 @@
       <c r="S4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>0</v>
       </c>
       <c r="U4" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V4" s="5">
+        <v>19</v>
+      </c>
+      <c r="W4" s="5">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="5"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="5"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1784,17 +1836,17 @@
       <c r="E5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F5" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -1806,20 +1858,20 @@
       <c r="L5" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="5">
         <v>263</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="5">
         <v>276</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="5">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -1828,15 +1880,26 @@
       <c r="S5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>0</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V5" s="5">
+        <v>16</v>
+      </c>
+      <c r="W5" s="5">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="5"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="5"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1851,17 +1914,17 @@
       <c r="E6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1873,20 +1936,20 @@
       <c r="L6" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="5">
         <v>177</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="5">
         <v>183</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="5">
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R6" s="1" t="s">
@@ -1895,15 +1958,26 @@
       <c r="S6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>0</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V6" s="5">
+        <v>16</v>
+      </c>
+      <c r="W6" s="5">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="5"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="5"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1918,17 +1992,17 @@
       <c r="E7" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F7" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -1940,20 +2014,20 @@
       <c r="L7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="5">
         <v>163</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="5">
         <v>172</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="5">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R7" s="1" t="s">
@@ -1962,15 +2036,26 @@
       <c r="S7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>0</v>
       </c>
       <c r="U7" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V7" s="5">
+        <v>8</v>
+      </c>
+      <c r="W7" s="5">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="5"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="5"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1985,17 +2070,17 @@
       <c r="E8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F8" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -2007,20 +2092,20 @@
       <c r="L8" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="5">
         <v>245</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="5">
         <v>252</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="5">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R8" s="1" t="s">
@@ -2029,15 +2114,26 @@
       <c r="S8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>100</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V8" s="5">
+        <v>23</v>
+      </c>
+      <c r="W8" s="5">
+        <f t="shared" si="1"/>
+        <v>223</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="5"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="5"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2052,17 +2148,17 @@
       <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F9" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -2074,20 +2170,20 @@
       <c r="L9" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="5">
         <v>224</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="5">
         <v>237</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="5">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R9" s="1" t="s">
@@ -2096,15 +2192,26 @@
       <c r="S9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>0</v>
       </c>
       <c r="U9" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V9" s="5">
+        <v>19</v>
+      </c>
+      <c r="W9" s="5">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="5"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="5"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -2119,17 +2226,17 @@
       <c r="E10" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="7" t="s">
         <v>21</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -2141,20 +2248,20 @@
       <c r="L10" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="5">
         <v>169</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="5">
         <v>172</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="5">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R10" s="1" t="s">
@@ -2163,15 +2270,26 @@
       <c r="S10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>0</v>
       </c>
       <c r="U10" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V10" s="5">
+        <v>8</v>
+      </c>
+      <c r="W10" s="5">
+        <f t="shared" si="1"/>
+        <v>162</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="5"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="5"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -2186,17 +2304,17 @@
       <c r="E11" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F11" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -2208,20 +2326,20 @@
       <c r="L11" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="5">
         <v>161</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="5">
         <v>171</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="5">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R11" s="1" t="s">
@@ -2230,15 +2348,26 @@
       <c r="S11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>0</v>
       </c>
       <c r="U11" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V11" s="5">
+        <v>7</v>
+      </c>
+      <c r="W11" s="5">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="5"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="5"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -2253,17 +2382,17 @@
       <c r="E12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F12" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F12" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2275,20 +2404,20 @@
       <c r="L12" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>223</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>231</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R12" s="1" t="s">
@@ -2297,15 +2426,26 @@
       <c r="S12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>0</v>
       </c>
       <c r="U12" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V12" s="5">
+        <v>10</v>
+      </c>
+      <c r="W12" s="5">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="5"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="5"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -2320,17 +2460,17 @@
       <c r="E13" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F13" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="7" t="s">
         <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2342,20 +2482,20 @@
       <c r="L13" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="5">
         <v>242</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="5">
         <v>252</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="5">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R13" s="1" t="s">
@@ -2364,15 +2504,26 @@
       <c r="S13" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>0</v>
       </c>
       <c r="U13" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V13" s="5">
+        <v>6</v>
+      </c>
+      <c r="W13" s="5">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="5"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -2387,17 +2538,17 @@
       <c r="E14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F14" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F14" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="7" t="s">
         <v>26</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -2409,20 +2560,20 @@
       <c r="L14" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="5">
         <v>180</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="5">
         <v>190</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="5">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R14" s="1" t="s">
@@ -2431,15 +2582,26 @@
       <c r="S14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>0</v>
       </c>
       <c r="U14" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V14" s="5">
+        <v>14</v>
+      </c>
+      <c r="W14" s="5">
+        <f t="shared" si="1"/>
+        <v>167</v>
+      </c>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="5"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="5"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -2454,17 +2616,17 @@
       <c r="E15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F15" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -2476,20 +2638,20 @@
       <c r="L15" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="5">
         <v>145</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="5">
         <v>152</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="5">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R15" s="1" t="s">
@@ -2498,15 +2660,26 @@
       <c r="S15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>100</v>
       </c>
       <c r="U15" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V15" s="5">
+        <v>0</v>
+      </c>
+      <c r="W15" s="5">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="5"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="5"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2521,17 +2694,17 @@
       <c r="E16" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F16" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F16" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -2543,20 +2716,20 @@
       <c r="L16" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="5">
         <v>233</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="5">
         <v>243</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="5">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R16" s="1" t="s">
@@ -2565,15 +2738,26 @@
       <c r="S16" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>0</v>
       </c>
       <c r="U16" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V16" s="5">
+        <v>14</v>
+      </c>
+      <c r="W16" s="5">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="5"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="5"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2588,17 +2772,17 @@
       <c r="E17" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F17" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F17" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -2610,20 +2794,20 @@
       <c r="L17" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="5">
         <v>248</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="5">
         <v>258</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="5">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R17" s="1" t="s">
@@ -2632,15 +2816,26 @@
       <c r="S17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>0</v>
       </c>
       <c r="U17" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V17" s="5">
+        <v>22</v>
+      </c>
+      <c r="W17" s="5">
+        <f t="shared" si="1"/>
+        <v>227</v>
+      </c>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="5"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="5"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2655,17 +2850,17 @@
       <c r="E18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F18" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="7" t="s">
         <v>87</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -2677,20 +2872,20 @@
       <c r="L18" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="5">
         <v>173</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="5">
         <v>184</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="5">
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R18" s="1" t="s">
@@ -2699,15 +2894,26 @@
       <c r="S18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>0</v>
       </c>
       <c r="U18" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V18" s="5">
+        <v>9</v>
+      </c>
+      <c r="W18" s="5">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="5"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="5"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2722,17 +2928,17 @@
       <c r="E19" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F19" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -2744,20 +2950,20 @@
       <c r="L19" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="5">
         <v>160</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="5">
         <v>169</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="5">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R19" s="1" t="s">
@@ -2766,15 +2972,26 @@
       <c r="S19" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>0</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V19" s="5">
+        <v>13</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="5"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="5"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2789,17 +3006,17 @@
       <c r="E20" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F20" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -2811,20 +3028,20 @@
       <c r="L20" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="5">
         <v>232</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="5">
         <v>239</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="5">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R20" s="1" t="s">
@@ -2833,15 +3050,26 @@
       <c r="S20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <v>0</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V20" s="5">
+        <v>27</v>
+      </c>
+      <c r="W20" s="5">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="5"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="5"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2856,17 +3084,17 @@
       <c r="E21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F21" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="I21" s="7" t="s">
         <v>90</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -2878,20 +3106,20 @@
       <c r="L21" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>205</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="5">
         <v>215</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="5">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="Q21" s="5" t="s">
+      <c r="Q21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R21" s="1" t="s">
@@ -2900,15 +3128,26 @@
       <c r="S21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>0</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V21" s="5">
+        <v>10</v>
+      </c>
+      <c r="W21" s="5">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="5"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="5"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -2923,17 +3162,17 @@
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F22" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F22" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I22" s="7" t="s">
         <v>91</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -2945,20 +3184,20 @@
       <c r="L22" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="5">
         <v>172</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="5">
         <v>179</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="5">
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="1" t="s">
@@ -2967,15 +3206,26 @@
       <c r="S22" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="5">
         <v>0</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V22" s="5">
+        <v>18</v>
+      </c>
+      <c r="W22" s="5">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="5"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="5"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2990,17 +3240,17 @@
       <c r="E23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F23" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F23" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I23" s="4" t="s">
+      <c r="I23" s="7" t="s">
         <v>92</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -3012,20 +3262,20 @@
       <c r="L23" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="5">
         <v>200</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="5">
         <v>211</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="5">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R23" s="1" t="s">
@@ -3034,15 +3284,26 @@
       <c r="S23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="5">
         <v>0</v>
       </c>
       <c r="U23" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V23" s="5">
+        <v>28</v>
+      </c>
+      <c r="W23" s="5">
+        <f t="shared" si="1"/>
+        <v>173</v>
+      </c>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="5"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="5"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3057,17 +3318,17 @@
       <c r="E24" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F24" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F24" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -3079,20 +3340,20 @@
       <c r="L24" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="5">
         <v>244</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="5">
         <v>254</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="5">
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R24" s="1" t="s">
@@ -3101,15 +3362,26 @@
       <c r="S24" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>0</v>
       </c>
       <c r="U24" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V24" s="5">
+        <v>24</v>
+      </c>
+      <c r="W24" s="5">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="5"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="5"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -3124,17 +3396,17 @@
       <c r="E25" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F25" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="G25" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="I25" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -3146,20 +3418,20 @@
       <c r="L25" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="5">
         <v>221</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="5">
         <v>223</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="5">
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R25" s="1" t="s">
@@ -3168,15 +3440,26 @@
       <c r="S25" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="5">
         <v>0</v>
       </c>
       <c r="U25" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V25" s="5">
+        <v>2</v>
+      </c>
+      <c r="W25" s="5">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="5"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="5"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3191,17 +3474,17 @@
       <c r="E26" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F26" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F26" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="7" t="s">
         <v>95</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -3213,20 +3496,20 @@
       <c r="L26" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="5">
         <v>156</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="5">
         <v>170</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="5">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="Q26" s="5" t="s">
+      <c r="Q26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R26" s="1" t="s">
@@ -3235,15 +3518,26 @@
       <c r="S26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="5">
         <v>0</v>
       </c>
       <c r="U26" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="5"/>
+      <c r="AE26" s="6"/>
+      <c r="AF26" s="5"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -3258,17 +3552,17 @@
       <c r="E27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F27" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F27" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I27" s="4" t="s">
+      <c r="I27" s="7" t="s">
         <v>96</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -3280,20 +3574,20 @@
       <c r="L27" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="5">
         <v>156</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="5">
         <v>166</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="5">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="Q27" s="5" t="s">
+      <c r="Q27" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R27" s="1" t="s">
@@ -3302,15 +3596,26 @@
       <c r="S27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="5">
         <v>0</v>
       </c>
       <c r="U27" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="W27" s="5">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AE27" s="6"/>
+      <c r="AF27" s="5"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -3325,17 +3630,17 @@
       <c r="E28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F28" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="I28" s="7" t="s">
         <v>97</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -3347,20 +3652,20 @@
       <c r="L28" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="5">
         <v>227</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="5">
         <v>231</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="5">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R28" s="1" t="s">
@@ -3369,15 +3674,26 @@
       <c r="S28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="5">
         <v>0</v>
       </c>
       <c r="U28" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V28" s="5">
+        <v>4</v>
+      </c>
+      <c r="W28" s="5">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="5"/>
+      <c r="AE28" s="6"/>
+      <c r="AF28" s="5"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -3392,17 +3708,17 @@
       <c r="E29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F29" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F29" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="I29" s="4" t="s">
+      <c r="I29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -3414,20 +3730,20 @@
       <c r="L29" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="5">
         <v>210</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="5">
         <v>217</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="5">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R29" s="1" t="s">
@@ -3436,15 +3752,26 @@
       <c r="S29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="5">
         <v>0</v>
       </c>
       <c r="U29" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V29" s="5">
+        <v>9</v>
+      </c>
+      <c r="W29" s="5">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="5"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="5"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -3459,17 +3786,17 @@
       <c r="E30" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F30" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F30" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I30" s="7" t="s">
         <v>99</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -3481,20 +3808,20 @@
       <c r="L30" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="5">
         <v>161</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="5">
         <v>174</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="5">
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="Q30" s="5" t="s">
+      <c r="Q30" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R30" s="1" t="s">
@@ -3503,15 +3830,26 @@
       <c r="S30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="5">
         <v>0</v>
       </c>
       <c r="U30" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V30" s="5">
+        <v>10</v>
+      </c>
+      <c r="W30" s="5">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="5"/>
+      <c r="AE30" s="6"/>
+      <c r="AF30" s="5"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3526,17 +3864,17 @@
       <c r="E31" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F31" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G31" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I31" s="4" t="s">
+      <c r="I31" s="7" t="s">
         <v>100</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -3548,20 +3886,20 @@
       <c r="L31" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="5">
         <v>148</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="5">
         <v>159</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="5">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="Q31" s="5" t="s">
+      <c r="Q31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R31" s="1" t="s">
@@ -3570,15 +3908,26 @@
       <c r="S31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="5">
         <v>0</v>
       </c>
       <c r="U31" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V31" s="5">
+        <v>7</v>
+      </c>
+      <c r="W31" s="5">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="5"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="5"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -3593,17 +3942,17 @@
       <c r="E32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F32" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F32" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="I32" s="7" t="s">
         <v>101</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -3615,20 +3964,20 @@
       <c r="L32" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="5">
         <v>212</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="5">
         <v>221</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="5">
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="Q32" s="5" t="s">
+      <c r="Q32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R32" s="1" t="s">
@@ -3637,15 +3986,26 @@
       <c r="S32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="5">
         <v>0</v>
       </c>
       <c r="U32" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V32" s="5">
+        <v>14</v>
+      </c>
+      <c r="W32" s="5">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="5"/>
+      <c r="AE32" s="6"/>
+      <c r="AF32" s="5"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -3660,17 +4020,17 @@
       <c r="E33" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F33" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F33" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G33" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="I33" s="7" t="s">
         <v>102</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -3682,20 +4042,20 @@
       <c r="L33" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="5">
         <v>200</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="5">
         <v>204</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="5">
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="Q33" s="5" t="s">
+      <c r="Q33" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R33" s="1" t="s">
@@ -3704,15 +4064,26 @@
       <c r="S33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="5">
         <v>0</v>
       </c>
       <c r="U33" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V33" s="5">
+        <v>2</v>
+      </c>
+      <c r="W33" s="5">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="5"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="5"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3727,17 +4098,17 @@
       <c r="E34" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F34" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F34" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="7" t="s">
         <v>103</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -3749,20 +4120,20 @@
       <c r="L34" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="5">
         <v>174</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="5">
         <v>190</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="5">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="Q34" s="5" t="s">
+      <c r="Q34" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R34" s="1" t="s">
@@ -3771,15 +4142,26 @@
       <c r="S34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="5">
         <v>0</v>
       </c>
       <c r="U34" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V34" s="5">
+        <v>16</v>
+      </c>
+      <c r="W34" s="5">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="5"/>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="5"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -3794,17 +4176,17 @@
       <c r="E35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F35" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F35" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="7" t="s">
         <v>104</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -3816,20 +4198,20 @@
       <c r="L35" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="5">
         <v>180</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="5">
         <v>189</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="5">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="Q35" s="5" t="s">
+      <c r="Q35" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R35" s="1" t="s">
@@ -3838,15 +4220,26 @@
       <c r="S35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="5">
         <v>0</v>
       </c>
       <c r="U35" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V35" s="5">
+        <v>37</v>
+      </c>
+      <c r="W35" s="5">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="5"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="5"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -3861,17 +4254,17 @@
       <c r="E36" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F36" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F36" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G36" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I36" s="4" t="s">
+      <c r="I36" s="7" t="s">
         <v>105</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -3883,20 +4276,20 @@
       <c r="L36" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="5">
         <v>232</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="5">
         <v>233</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="5">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="Q36" s="5" t="s">
+      <c r="Q36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R36" s="1" t="s">
@@ -3905,15 +4298,26 @@
       <c r="S36" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="5">
         <v>0</v>
       </c>
       <c r="U36" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V36" s="5">
+        <v>27</v>
+      </c>
+      <c r="W36" s="5">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="5"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="5"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -3928,17 +4332,17 @@
       <c r="E37" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F37" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F37" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G37" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I37" s="4" t="s">
+      <c r="I37" s="7" t="s">
         <v>106</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -3950,20 +4354,20 @@
       <c r="L37" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="5">
         <v>229</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="5">
         <v>239</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="5">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="Q37" s="5" t="s">
+      <c r="Q37" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R37" s="1" t="s">
@@ -3972,15 +4376,26 @@
       <c r="S37" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="5">
         <v>0</v>
       </c>
       <c r="U37" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V37" s="5">
+        <v>31</v>
+      </c>
+      <c r="W37" s="5">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="5"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="5"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3995,17 +4410,17 @@
       <c r="E38" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F38" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I38" s="7" t="s">
         <v>107</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -4017,20 +4432,20 @@
       <c r="L38" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="5">
         <v>167</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="5">
         <v>178</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="5">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="Q38" s="5" t="s">
+      <c r="Q38" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R38" s="1" t="s">
@@ -4039,15 +4454,26 @@
       <c r="S38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="5">
         <v>0</v>
       </c>
       <c r="U38" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V38" s="5">
+        <v>18</v>
+      </c>
+      <c r="W38" s="5">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="5"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="5"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4062,17 +4488,17 @@
       <c r="E39" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F39" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="G39" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I39" s="4" t="s">
+      <c r="I39" s="7" t="s">
         <v>108</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -4084,20 +4510,20 @@
       <c r="L39" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="5">
         <v>159</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="5">
         <v>161</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P39" s="5">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q39" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R39" s="1" t="s">
@@ -4106,15 +4532,26 @@
       <c r="S39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="5">
         <v>0</v>
       </c>
       <c r="U39" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V39" s="5">
+        <v>11</v>
+      </c>
+      <c r="W39" s="5">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="5"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="5"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4129,17 +4566,17 @@
       <c r="E40" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F40" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F40" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I40" s="4" t="s">
+      <c r="I40" s="7" t="s">
         <v>109</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -4151,20 +4588,20 @@
       <c r="L40" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="5">
         <v>216</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="5">
         <v>228</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P40" s="5">
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="Q40" s="5" t="s">
+      <c r="Q40" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R40" s="1" t="s">
@@ -4173,15 +4610,26 @@
       <c r="S40" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="5">
         <v>0</v>
       </c>
       <c r="U40" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V40" s="5">
+        <v>5</v>
+      </c>
+      <c r="W40" s="5">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="5"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="5"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4196,17 +4644,17 @@
       <c r="E41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F41" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="G41" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="I41" s="4" t="s">
+      <c r="I41" s="7" t="s">
         <v>110</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -4218,20 +4666,20 @@
       <c r="L41" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="5">
         <v>223</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="5">
         <v>230</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P41" s="5">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="Q41" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R41" s="1" t="s">
@@ -4240,15 +4688,26 @@
       <c r="S41" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="5">
         <v>0</v>
       </c>
       <c r="U41" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V41" s="5">
+        <v>10</v>
+      </c>
+      <c r="W41" s="5">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="5"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="5"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4263,17 +4722,17 @@
       <c r="E42" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F42" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="G42" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="I42" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -4285,20 +4744,20 @@
       <c r="L42" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="5">
         <v>251</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="5">
         <v>259</v>
       </c>
-      <c r="P42" s="1">
+      <c r="P42" s="5">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="Q42" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R42" s="1" t="s">
@@ -4307,15 +4766,26 @@
       <c r="S42" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="5">
         <v>0</v>
       </c>
       <c r="U42" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V42" s="5">
+        <v>39</v>
+      </c>
+      <c r="W42" s="5">
+        <f t="shared" si="1"/>
+        <v>213</v>
+      </c>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="5"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="5"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4330,17 +4800,17 @@
       <c r="E43" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F43" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="G43" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I43" s="4" t="s">
+      <c r="I43" s="7" t="s">
         <v>112</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -4352,20 +4822,20 @@
       <c r="L43" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="5">
         <v>171</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="5">
         <v>181</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P43" s="5">
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R43" s="1" t="s">
@@ -4374,15 +4844,26 @@
       <c r="S43" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="5">
         <v>0</v>
       </c>
       <c r="U43" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V43" s="5">
+        <v>12</v>
+      </c>
+      <c r="W43" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="5"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="5"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4397,17 +4878,17 @@
       <c r="E44" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F44" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="G44" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I44" s="4" t="s">
+      <c r="I44" s="7" t="s">
         <v>113</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -4419,20 +4900,20 @@
       <c r="L44" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="5">
         <v>226</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="5">
         <v>235</v>
       </c>
-      <c r="P44" s="1">
+      <c r="P44" s="5">
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="Q44" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R44" s="1" t="s">
@@ -4441,15 +4922,26 @@
       <c r="S44" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="5">
         <v>0</v>
       </c>
       <c r="U44" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V44" s="5">
+        <v>23</v>
+      </c>
+      <c r="W44" s="5">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="5"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="5"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4464,17 +4956,17 @@
       <c r="E45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F45" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G45" s="5" t="s">
+      <c r="G45" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I45" s="4" t="s">
+      <c r="I45" s="7" t="s">
         <v>114</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -4486,20 +4978,20 @@
       <c r="L45" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="5">
         <v>226</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="5">
         <v>239</v>
       </c>
-      <c r="P45" s="1">
+      <c r="P45" s="5">
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="Q45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R45" s="1" t="s">
@@ -4508,15 +5000,26 @@
       <c r="S45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="5">
         <v>0</v>
       </c>
       <c r="U45" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V45" s="5">
+        <v>19</v>
+      </c>
+      <c r="W45" s="5">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="5"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="5"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4531,17 +5034,17 @@
       <c r="E46" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F46" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F46" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G46" s="5" t="s">
+      <c r="G46" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="7" t="s">
         <v>115</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -4553,20 +5056,20 @@
       <c r="L46" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="5">
         <v>168</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="5">
         <v>181</v>
       </c>
-      <c r="P46" s="1">
+      <c r="P46" s="5">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="Q46" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R46" s="1" t="s">
@@ -4575,15 +5078,26 @@
       <c r="S46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="5">
         <v>0</v>
       </c>
       <c r="U46" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V46" s="5">
+        <v>19</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="5"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="5"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4598,17 +5112,17 @@
       <c r="E47" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F47" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="G47" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="7" t="s">
         <v>116</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -4620,20 +5134,20 @@
       <c r="L47" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="5">
         <v>168</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="5">
         <v>181</v>
       </c>
-      <c r="P47" s="1">
+      <c r="P47" s="5">
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="Q47" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R47" s="1" t="s">
@@ -4642,15 +5156,26 @@
       <c r="S47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="5">
         <v>0</v>
       </c>
       <c r="U47" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V47" s="5">
+        <v>17</v>
+      </c>
+      <c r="W47" s="5">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="5"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="5"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4665,17 +5190,17 @@
       <c r="E48" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F48" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F48" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="G48" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="7" t="s">
         <v>117</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -4687,20 +5212,20 @@
       <c r="L48" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="5">
         <v>184</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="5">
         <v>188</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="5">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="Q48" s="5" t="s">
+      <c r="Q48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R48" s="1" t="s">
@@ -4709,15 +5234,26 @@
       <c r="S48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="5">
         <v>0</v>
       </c>
       <c r="U48" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V48" s="5">
+        <v>0</v>
+      </c>
+      <c r="W48" s="5">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="5"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="5"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -4732,17 +5268,17 @@
       <c r="E49" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F49" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F49" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="G49" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="7" t="s">
         <v>118</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -4754,20 +5290,20 @@
       <c r="L49" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="5">
         <v>214</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="5">
         <v>221</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="5">
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="Q49" s="5" t="s">
+      <c r="Q49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R49" s="1" t="s">
@@ -4776,15 +5312,26 @@
       <c r="S49" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="5">
         <v>0</v>
       </c>
       <c r="U49" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V49" s="5">
+        <v>11</v>
+      </c>
+      <c r="W49" s="5">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="5"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="5"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -4799,17 +5346,17 @@
       <c r="E50" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F50" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F50" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="G50" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I50" s="4" t="s">
+      <c r="I50" s="7" t="s">
         <v>119</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -4821,20 +5368,20 @@
       <c r="L50" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="5">
         <v>181</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="5">
         <v>191</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="5">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="Q50" s="5" t="s">
+      <c r="Q50" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R50" s="1" t="s">
@@ -4843,15 +5390,26 @@
       <c r="S50" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="5">
         <v>0</v>
       </c>
       <c r="U50" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V50" s="5">
+        <v>22</v>
+      </c>
+      <c r="W50" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="5"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="5"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -4866,17 +5424,17 @@
       <c r="E51" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F51" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I51" s="4" t="s">
+      <c r="I51" s="7" t="s">
         <v>120</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -4888,20 +5446,20 @@
       <c r="L51" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="5">
         <v>158</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="5">
         <v>166</v>
       </c>
-      <c r="P51" s="1">
+      <c r="P51" s="5">
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="Q51" s="5" t="s">
+      <c r="Q51" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R51" s="1" t="s">
@@ -4910,15 +5468,26 @@
       <c r="S51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="5">
         <v>100</v>
       </c>
       <c r="U51" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V51" s="5">
+        <v>19</v>
+      </c>
+      <c r="W51" s="5">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="5"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="5"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -4933,17 +5502,17 @@
       <c r="E52" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F52" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F52" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="G52" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I52" s="4" t="s">
+      <c r="I52" s="7" t="s">
         <v>121</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -4955,20 +5524,20 @@
       <c r="L52" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="5">
         <v>196</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="5">
         <v>200</v>
       </c>
-      <c r="P52" s="1">
+      <c r="P52" s="5">
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="Q52" s="5" t="s">
+      <c r="Q52" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R52" s="1" t="s">
@@ -4977,15 +5546,26 @@
       <c r="S52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="5">
         <v>0</v>
       </c>
       <c r="U52" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V52" s="5">
+        <v>7</v>
+      </c>
+      <c r="W52" s="5">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="5"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="5"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5000,17 +5580,17 @@
       <c r="E53" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F53" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F53" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="I53" s="4" t="s">
+      <c r="I53" s="7" t="s">
         <v>122</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -5022,20 +5602,20 @@
       <c r="L53" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="5">
         <v>218</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="5">
         <v>229</v>
       </c>
-      <c r="P53" s="1">
+      <c r="P53" s="5">
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="Q53" s="5" t="s">
+      <c r="Q53" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R53" s="1" t="s">
@@ -5044,15 +5624,26 @@
       <c r="S53" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T53" s="6">
+      <c r="T53" s="5">
         <v>0</v>
       </c>
       <c r="U53" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V53" s="5">
+        <v>14</v>
+      </c>
+      <c r="W53" s="5">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="5"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="5"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -5067,17 +5658,17 @@
       <c r="E54" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F54" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F54" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="G54" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I54" s="4" t="s">
+      <c r="I54" s="7" t="s">
         <v>123</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -5089,20 +5680,20 @@
       <c r="L54" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="5">
         <v>162</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="5">
         <v>168</v>
       </c>
-      <c r="P54" s="1">
+      <c r="P54" s="5">
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="Q54" s="5" t="s">
+      <c r="Q54" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R54" s="1" t="s">
@@ -5111,15 +5702,26 @@
       <c r="S54" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="5">
         <v>0</v>
       </c>
       <c r="U54" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V54" s="5">
+        <v>17</v>
+      </c>
+      <c r="W54" s="5">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="5"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="5"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5134,17 +5736,17 @@
       <c r="E55" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F55" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F55" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="G55" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I55" s="4" t="s">
+      <c r="I55" s="7" t="s">
         <v>124</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -5156,20 +5758,20 @@
       <c r="L55" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="5">
         <v>175</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="5">
         <v>184</v>
       </c>
-      <c r="P55" s="1">
+      <c r="P55" s="5">
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="Q55" s="5" t="s">
+      <c r="Q55" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R55" s="1" t="s">
@@ -5178,15 +5780,26 @@
       <c r="S55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T55" s="6">
+      <c r="T55" s="5">
         <v>0</v>
       </c>
       <c r="U55" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V55" s="5">
+        <v>30</v>
+      </c>
+      <c r="W55" s="5">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="5"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="5"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5201,17 +5814,17 @@
       <c r="E56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F56" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F56" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G56" s="5" t="s">
+      <c r="G56" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="7" t="s">
         <v>125</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -5223,20 +5836,20 @@
       <c r="L56" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="5">
         <v>223</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="5">
         <v>232</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="5">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="Q56" s="5" t="s">
+      <c r="Q56" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R56" s="1" t="s">
@@ -5245,15 +5858,26 @@
       <c r="S56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T56" s="6">
+      <c r="T56" s="5">
         <v>0</v>
       </c>
       <c r="U56" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V56" s="5">
+        <v>18</v>
+      </c>
+      <c r="W56" s="5">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="5"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="5"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5268,17 +5892,17 @@
       <c r="E57" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F57" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F57" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="7" t="s">
         <v>126</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -5290,20 +5914,20 @@
       <c r="L57" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="5">
         <v>199</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="5">
         <v>210</v>
       </c>
-      <c r="P57" s="1">
+      <c r="P57" s="5">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="Q57" s="5" t="s">
+      <c r="Q57" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R57" s="1" t="s">
@@ -5312,15 +5936,26 @@
       <c r="S57" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T57" s="6">
+      <c r="T57" s="5">
         <v>0</v>
       </c>
       <c r="U57" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V57" s="5">
+        <v>14</v>
+      </c>
+      <c r="W57" s="5">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="5"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="5"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -5335,17 +5970,17 @@
       <c r="E58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F58" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G58" s="5" t="s">
+      <c r="G58" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I58" s="4" t="s">
+      <c r="I58" s="7" t="s">
         <v>127</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -5357,20 +5992,20 @@
       <c r="L58" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="5">
         <v>167</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="5">
         <v>178</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="5">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="Q58" s="5" t="s">
+      <c r="Q58" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R58" s="1" t="s">
@@ -5379,15 +6014,26 @@
       <c r="S58" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T58" s="5">
         <v>0</v>
       </c>
       <c r="U58" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V58" s="5">
+        <v>24</v>
+      </c>
+      <c r="W58" s="5">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="5"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="5"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -5402,17 +6048,17 @@
       <c r="E59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F59" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F59" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="G59" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I59" s="4" t="s">
+      <c r="I59" s="7" t="s">
         <v>128</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -5424,20 +6070,20 @@
       <c r="L59" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="5">
         <v>173</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="5">
         <v>187</v>
       </c>
-      <c r="P59" s="1">
+      <c r="P59" s="5">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="Q59" s="5" t="s">
+      <c r="Q59" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R59" s="1" t="s">
@@ -5446,15 +6092,26 @@
       <c r="S59" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T59" s="5">
         <v>0</v>
       </c>
       <c r="U59" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V59" s="5">
+        <v>28</v>
+      </c>
+      <c r="W59" s="5">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="5"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="5"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5469,17 +6126,17 @@
       <c r="E60" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F60" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F60" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="G60" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I60" s="4" t="s">
+      <c r="I60" s="7" t="s">
         <v>129</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -5491,20 +6148,20 @@
       <c r="L60" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="5">
         <v>202</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="5">
         <v>212</v>
       </c>
-      <c r="P60" s="1">
+      <c r="P60" s="5">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="Q60" s="5" t="s">
+      <c r="Q60" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R60" s="1" t="s">
@@ -5513,15 +6170,26 @@
       <c r="S60" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="5">
         <v>0</v>
       </c>
       <c r="U60" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V60" s="5">
+        <v>17</v>
+      </c>
+      <c r="W60" s="5">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="5"/>
+      <c r="AE60" s="6"/>
+      <c r="AF60" s="5"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -5536,17 +6204,17 @@
       <c r="E61" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F61" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F61" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G61" s="5" t="s">
+      <c r="G61" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I61" s="4" t="s">
+      <c r="I61" s="7" t="s">
         <v>130</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -5558,20 +6226,20 @@
       <c r="L61" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="5">
         <v>230</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="5">
         <v>244</v>
       </c>
-      <c r="P61" s="1">
+      <c r="P61" s="5">
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="Q61" s="5" t="s">
+      <c r="Q61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R61" s="1" t="s">
@@ -5580,15 +6248,26 @@
       <c r="S61" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="5">
         <v>0</v>
       </c>
       <c r="U61" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="V61" s="5">
+        <v>28</v>
+      </c>
+      <c r="W61" s="5">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="Z61" s="6"/>
+      <c r="AA61" s="5"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="5"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -5603,17 +6282,17 @@
       <c r="E62" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F62" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="G62" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="7" t="s">
         <v>131</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -5625,20 +6304,20 @@
       <c r="L62" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="5">
         <v>181</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="5">
         <v>188</v>
       </c>
-      <c r="P62" s="1">
+      <c r="P62" s="5">
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="Q62" s="5" t="s">
+      <c r="Q62" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R62" s="1" t="s">
@@ -5647,15 +6326,26 @@
       <c r="S62" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T62" s="6">
+      <c r="T62" s="5">
         <v>0</v>
       </c>
       <c r="U62" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V62" s="5">
+        <v>31</v>
+      </c>
+      <c r="W62" s="5">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="5"/>
+      <c r="AE62" s="6"/>
+      <c r="AF62" s="5"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -5670,17 +6360,17 @@
       <c r="E63" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F63" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F63" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="G63" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="I63" s="7" t="s">
         <v>132</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -5692,20 +6382,20 @@
       <c r="L63" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="5">
         <v>180</v>
       </c>
-      <c r="O63">
-        <v>182</v>
-      </c>
-      <c r="P63" s="1">
+      <c r="O63" s="5">
+        <v>182</v>
+      </c>
+      <c r="P63" s="5">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="Q63" s="5" t="s">
+      <c r="Q63" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R63" s="1" t="s">
@@ -5714,15 +6404,26 @@
       <c r="S63" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="T63" s="6">
+      <c r="T63" s="5">
         <v>0</v>
       </c>
       <c r="U63" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V63" s="5">
+        <v>27</v>
+      </c>
+      <c r="W63" s="5">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="Z63" s="6"/>
+      <c r="AA63" s="5"/>
+      <c r="AE63" s="6"/>
+      <c r="AF63" s="5"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -5737,17 +6438,17 @@
       <c r="E64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F64" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F64" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="G64" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="I64" s="7" t="s">
         <v>133</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -5759,20 +6460,20 @@
       <c r="L64" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="5">
         <v>210</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="5">
         <v>221</v>
       </c>
-      <c r="P64" s="1">
+      <c r="P64" s="5">
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="Q64" s="5" t="s">
+      <c r="Q64" s="4" t="s">
         <v>6</v>
       </c>
       <c r="R64" s="1" t="s">
@@ -5781,15 +6482,26 @@
       <c r="S64" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T64" s="6">
+      <c r="T64" s="5">
         <v>0</v>
       </c>
       <c r="U64" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V64" s="5">
+        <v>27</v>
+      </c>
+      <c r="W64" s="5">
+        <f t="shared" si="1"/>
+        <v>184</v>
+      </c>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="5"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="5"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -5804,17 +6516,17 @@
       <c r="E65" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F65" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="F65" s="7">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="G65" s="4" t="s">
         <v>182</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="I65" s="7" t="s">
         <v>134</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -5826,20 +6538,20 @@
       <c r="L65" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="5">
         <v>204</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="5">
         <v>214</v>
       </c>
-      <c r="P65" s="1">
+      <c r="P65" s="5">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="Q65" s="5" t="s">
+      <c r="Q65" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R65" s="1" t="s">
@@ -5848,12 +6560,21 @@
       <c r="S65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="T65" s="6">
+      <c r="T65" s="5">
         <v>0</v>
       </c>
       <c r="U65" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="V65" s="5">
+        <v>12</v>
+      </c>
+      <c r="W65" s="5">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
